--- a/Destination_files/Destination template_reserw.xlsx
+++ b/Destination_files/Destination template_reserw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,37 +522,27 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>NN_CN_v3_winter_wheat_predict_2020</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>NN_CN_v3_winter_wheat_predict_2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>NN_CN_v3_winter_wheat_predict_2022</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>NN_CN_v3_winter_wheat_predict_2023</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>dispersion</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>R2 score</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Mean squared error</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Root mean squared error</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Mean absolute error</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Pearson correlation (real productove and predicted)</t>
+          <t>NN_CN_v3_winter_wheat_predict_2024</t>
         </is>
       </c>
     </row>
@@ -621,8 +611,6 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -689,8 +677,6 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -757,8 +743,6 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -825,8 +809,6 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -894,15 +876,15 @@
       <c r="W6" t="n">
         <v>56.24752783657155</v>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>60.3</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -970,15 +952,15 @@
       <c r="W7" t="n">
         <v>47.63324862209499</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>47.9</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1046,15 +1028,15 @@
       <c r="W8" t="n">
         <v>35.4282504573322</v>
       </c>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>33.9</v>
+      </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1122,15 +1104,15 @@
       <c r="W9" t="n">
         <v>44.86886451352314</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>46.9</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1198,15 +1180,15 @@
       <c r="W10" t="n">
         <v>39.50598741475658</v>
       </c>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>38.1</v>
+      </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1274,15 +1256,15 @@
       <c r="W11" t="n">
         <v>66.38625109868264</v>
       </c>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>56.2</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1338,15 +1320,15 @@
       <c r="W12" t="n">
         <v>39.6511554442619</v>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>39.6</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1414,15 +1396,15 @@
       <c r="W13" t="n">
         <v>39.38097081777049</v>
       </c>
-      <c r="X13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>27.1</v>
+      </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1490,15 +1472,15 @@
       <c r="W14" t="n">
         <v>39.03192891267634</v>
       </c>
-      <c r="X14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>31.9</v>
+      </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1566,15 +1548,15 @@
       <c r="W15" t="n">
         <v>29.83855199183389</v>
       </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>21.4</v>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1642,15 +1624,15 @@
       <c r="W16" t="n">
         <v>45.78320051806918</v>
       </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>42.3</v>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1718,15 +1700,15 @@
       <c r="W17" t="n">
         <v>45.18146869072119</v>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>30.9</v>
+      </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1794,15 +1776,15 @@
       <c r="W18" t="n">
         <v>37.70804480143798</v>
       </c>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>31.3</v>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1870,15 +1852,15 @@
       <c r="W19" t="n">
         <v>38.0942071620788</v>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>37.1</v>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1946,15 +1928,15 @@
       <c r="W20" t="n">
         <v>60.59360246251712</v>
       </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>62.7</v>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2022,15 +2004,15 @@
       <c r="W21" t="n">
         <v>54.59824074167737</v>
       </c>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>53.6</v>
+      </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2098,15 +2080,15 @@
       <c r="W22" t="n">
         <v>51.70240445099672</v>
       </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>56.3</v>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2174,15 +2156,15 @@
       <c r="W23" t="n">
         <v>47.33058241394777</v>
       </c>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>40.1</v>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2250,15 +2232,15 @@
       <c r="W24" t="n">
         <v>45.92428181551281</v>
       </c>
-      <c r="X24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>48.6</v>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2326,15 +2308,15 @@
       <c r="W25" t="n">
         <v>48.3883772796854</v>
       </c>
-      <c r="X25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>45.7</v>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
